--- a/Code/Results/Cases/Case_0_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06301856144654749</v>
+        <v>0.0200434094887143</v>
       </c>
       <c r="D2">
-        <v>0.06332077813210901</v>
+        <v>0.01573050031654333</v>
       </c>
       <c r="E2">
-        <v>10.55056161012746</v>
+        <v>2.606204256907688</v>
       </c>
       <c r="F2">
-        <v>0.648527798568864</v>
+        <v>0.3008746626169483</v>
       </c>
       <c r="G2">
-        <v>0.0006960407799566228</v>
+        <v>0.002347413942568164</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4770899631387593</v>
+        <v>0.2151339154038396</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>39.67417174950327</v>
+        <v>10.73748604104105</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.932357871459629</v>
+        <v>0.8670485619508099</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05375861545858385</v>
+        <v>0.01752367395426546</v>
       </c>
       <c r="D3">
-        <v>0.05074146217231146</v>
+        <v>0.01376358889438478</v>
       </c>
       <c r="E3">
-        <v>8.452736061945529</v>
+        <v>2.269143849709252</v>
       </c>
       <c r="F3">
-        <v>0.4824188356738475</v>
+        <v>0.3044591907494265</v>
       </c>
       <c r="G3">
-        <v>0.0007115634744150932</v>
+        <v>0.002352826746773228</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3506623348224451</v>
+        <v>0.2187144283919551</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>32.40362643297249</v>
+        <v>9.381662007845648</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.371507084856631</v>
+        <v>0.8954597981311139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04841943947477034</v>
+        <v>0.01596922599944151</v>
       </c>
       <c r="D4">
-        <v>0.04428195373662192</v>
+        <v>0.01256053947008695</v>
       </c>
       <c r="E4">
-        <v>7.376760270290958</v>
+        <v>2.062605310405786</v>
       </c>
       <c r="F4">
-        <v>0.4025027769383414</v>
+        <v>0.3076306343039761</v>
       </c>
       <c r="G4">
-        <v>0.0007201972798691548</v>
+        <v>0.002356282461737881</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2903696470911257</v>
+        <v>0.2216539881105568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.54900072216617</v>
+        <v>8.547829241095599</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.110726697105747</v>
+        <v>0.9163309354213851</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04629428395028867</v>
+        <v>0.01533396446430402</v>
       </c>
       <c r="D5">
-        <v>0.04184108692931687</v>
+        <v>0.01207129960231867</v>
       </c>
       <c r="E5">
-        <v>6.970174161495805</v>
+        <v>1.978516891768066</v>
       </c>
       <c r="F5">
-        <v>0.3735922552291342</v>
+        <v>0.3091601265523778</v>
       </c>
       <c r="G5">
-        <v>0.0007235907540878717</v>
+        <v>0.002357724206886076</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2686637924660076</v>
+        <v>0.2230328270713287</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.07117185474334</v>
+        <v>8.207613826726913</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.018198317257259</v>
+        <v>0.9256720703308332</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0459437963997118</v>
+        <v>0.0152283713706538</v>
       </c>
       <c r="D6">
-        <v>0.04144503966656288</v>
+        <v>0.01199011862145483</v>
       </c>
       <c r="E6">
-        <v>6.904197582171292</v>
+        <v>1.964558017354449</v>
       </c>
       <c r="F6">
-        <v>0.3689764741545289</v>
+        <v>0.3094282171745562</v>
       </c>
       <c r="G6">
-        <v>0.0007241485544851826</v>
+        <v>0.002357965639079443</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2652041503285716</v>
+        <v>0.2232725542820049</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.8302836412941</v>
+        <v>8.151093605517929</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.00352636442571</v>
+        <v>0.9272729082315436</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04839060581762311</v>
+        <v>0.01596066592879453</v>
       </c>
       <c r="D7">
-        <v>0.04424837078895649</v>
+        <v>0.01255393750403755</v>
       </c>
       <c r="E7">
-        <v>7.37116647686139</v>
+        <v>2.061470984222296</v>
       </c>
       <c r="F7">
-        <v>0.402099794851658</v>
+        <v>0.3076503106363973</v>
       </c>
       <c r="G7">
-        <v>0.0007202434621192864</v>
+        <v>0.0023563017695084</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2900666720960743</v>
+        <v>0.2216718580606916</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.52874699269</v>
+        <v>8.54324278718633</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.109429756678111</v>
+        <v>0.916453561940699</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05972154774114102</v>
+        <v>0.0191761385571283</v>
       </c>
       <c r="D8">
-        <v>0.05860959791833409</v>
+        <v>0.01505124723004059</v>
       </c>
       <c r="E8">
-        <v>9.76424125813071</v>
+        <v>2.48988170344424</v>
       </c>
       <c r="F8">
-        <v>0.5850455022946406</v>
+        <v>0.3019049589907468</v>
       </c>
       <c r="G8">
-        <v>0.0007016673203374957</v>
+        <v>0.002349252995219228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4286160464031852</v>
+        <v>0.2162113719485177</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.98799881286396</v>
+        <v>10.27022604064683</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.71536649244689</v>
+        <v>0.8761180054980571</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05972154774114102</v>
+        <v>0.02542299128452896</v>
       </c>
       <c r="D9">
-        <v>0.05860959791833409</v>
+        <v>0.01999332617117489</v>
       </c>
       <c r="E9">
-        <v>9.76424125813071</v>
+        <v>3.334720529646233</v>
       </c>
       <c r="F9">
-        <v>0.5850455022946406</v>
+        <v>0.2986571896257857</v>
       </c>
       <c r="G9">
-        <v>0.0007016673203374957</v>
+        <v>0.002336466885483441</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4286160464031852</v>
+        <v>0.2116317524458466</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.98799881286396</v>
+        <v>13.65040484974105</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.71536649244689</v>
+        <v>0.8253825431057749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05972154774114102</v>
+        <v>0.029977023297306</v>
       </c>
       <c r="D10">
-        <v>0.05860959791833409</v>
+        <v>0.02366434996396549</v>
       </c>
       <c r="E10">
-        <v>9.76424125813071</v>
+        <v>3.960529526336586</v>
       </c>
       <c r="F10">
-        <v>0.5850455022946406</v>
+        <v>0.3016090548561863</v>
       </c>
       <c r="G10">
-        <v>0.0007016673203374957</v>
+        <v>0.002327685990018582</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4286160464031852</v>
+        <v>0.2123535080188645</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.98799881286396</v>
+        <v>16.13675056858943</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.71536649244689</v>
+        <v>0.8070565006937898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05972154774114102</v>
+        <v>0.03204131494655371</v>
       </c>
       <c r="D11">
-        <v>0.05860959791833409</v>
+        <v>0.02534628358819901</v>
       </c>
       <c r="E11">
-        <v>9.76424125813071</v>
+        <v>4.246889380416349</v>
       </c>
       <c r="F11">
-        <v>0.5850455022946406</v>
+        <v>0.3042120627471618</v>
       </c>
       <c r="G11">
-        <v>0.0007016673203374957</v>
+        <v>0.00232382006649252</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4286160464031852</v>
+        <v>0.2136479731319767</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>36.98799881286396</v>
+        <v>17.27020394811461</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.71536649244689</v>
+        <v>0.8032076406487079</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05972154774114102</v>
+        <v>0.03282197375530416</v>
       </c>
       <c r="D12">
-        <v>0.05860959791833409</v>
+        <v>0.02598519517270859</v>
       </c>
       <c r="E12">
-        <v>9.76424125813071</v>
+        <v>4.355617160271379</v>
       </c>
       <c r="F12">
-        <v>0.5850455022946406</v>
+        <v>0.3053876228739512</v>
       </c>
       <c r="G12">
-        <v>0.0007016673203374957</v>
+        <v>0.002322374254861342</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4286160464031852</v>
+        <v>0.2142838409437644</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.98799881286396</v>
+        <v>17.69991138302032</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.71536649244689</v>
+        <v>0.8024276387879468</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05972154774114102</v>
+        <v>0.03265389099135518</v>
       </c>
       <c r="D13">
-        <v>0.05860959791833409</v>
+        <v>0.02584750047082451</v>
       </c>
       <c r="E13">
-        <v>9.76424125813071</v>
+        <v>4.332186992515119</v>
       </c>
       <c r="F13">
-        <v>0.5850455022946406</v>
+        <v>0.3051258600359148</v>
       </c>
       <c r="G13">
-        <v>0.0007016673203374957</v>
+        <v>0.002322684835917062</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4286160464031852</v>
+        <v>0.214140306030373</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.98799881286396</v>
+        <v>17.60734176386507</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.71536649244689</v>
+        <v>0.8025649704699731</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05972154774114102</v>
+        <v>0.03210556101329587</v>
       </c>
       <c r="D14">
-        <v>0.05860959791833409</v>
+        <v>0.02539880545993611</v>
       </c>
       <c r="E14">
-        <v>9.76424125813071</v>
+        <v>4.255828384724907</v>
       </c>
       <c r="F14">
-        <v>0.5850455022946406</v>
+        <v>0.3043049211401794</v>
       </c>
       <c r="G14">
-        <v>0.0007016673203374957</v>
+        <v>0.002323700757504195</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4286160464031852</v>
+        <v>0.213697327120876</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.98799881286396</v>
+        <v>17.30554545757985</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.71536649244689</v>
+        <v>0.8031297033745091</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05972154774114102</v>
+        <v>0.03176955776010004</v>
       </c>
       <c r="D15">
-        <v>0.05860959791833409</v>
+        <v>0.02512423596441948</v>
       </c>
       <c r="E15">
-        <v>9.76424125813071</v>
+        <v>4.209095749459038</v>
       </c>
       <c r="F15">
-        <v>0.5850455022946406</v>
+        <v>0.3038270592426571</v>
       </c>
       <c r="G15">
-        <v>0.0007016673203374957</v>
+        <v>0.002324325388950831</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4286160464031852</v>
+        <v>0.2134451664364008</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36.98799881286396</v>
+        <v>17.12075535610342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.71536649244689</v>
+        <v>0.8035648205804478</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05972154774114102</v>
+        <v>0.02984196991724275</v>
       </c>
       <c r="D16">
-        <v>0.05860959791833409</v>
+        <v>0.02355469571928381</v>
       </c>
       <c r="E16">
-        <v>9.76424125813071</v>
+        <v>3.941853012191928</v>
       </c>
       <c r="F16">
-        <v>0.5850455022946406</v>
+        <v>0.301465032347167</v>
       </c>
       <c r="G16">
-        <v>0.0007016673203374957</v>
+        <v>0.002327941194095173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4286160464031852</v>
+        <v>0.2122889245505917</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.98799881286396</v>
+        <v>16.06273739430964</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.71536649244689</v>
+        <v>0.8074010588157421</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05972154774114102</v>
+        <v>0.02865757953205161</v>
       </c>
       <c r="D17">
-        <v>0.05860959791833409</v>
+        <v>0.02259508912321451</v>
       </c>
       <c r="E17">
-        <v>9.76424125813071</v>
+        <v>3.778370709816386</v>
       </c>
       <c r="F17">
-        <v>0.5850455022946406</v>
+        <v>0.3003448249763352</v>
       </c>
       <c r="G17">
-        <v>0.0007016673203374957</v>
+        <v>0.002330192051247767</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4286160464031852</v>
+        <v>0.2118317874197118</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.98799881286396</v>
+        <v>15.41439389109428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.71536649244689</v>
+        <v>0.8109263914984126</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05972154774114102</v>
+        <v>0.02797565524419099</v>
       </c>
       <c r="D18">
-        <v>0.05860959791833409</v>
+        <v>0.02204425692341516</v>
       </c>
       <c r="E18">
-        <v>9.76424125813071</v>
+        <v>3.68449462802198</v>
       </c>
       <c r="F18">
-        <v>0.5850455022946406</v>
+        <v>0.2998185916693714</v>
       </c>
       <c r="G18">
-        <v>0.0007016673203374957</v>
+        <v>0.002331498806981558</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4286160464031852</v>
+        <v>0.2116593735551078</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.98799881286396</v>
+        <v>15.04170032476338</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.71536649244689</v>
+        <v>0.8133744870200985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05972154774114102</v>
+        <v>0.02774464786320152</v>
       </c>
       <c r="D19">
-        <v>0.05860959791833409</v>
+        <v>0.02185793683683102</v>
       </c>
       <c r="E19">
-        <v>9.76424125813071</v>
+        <v>3.652734947628005</v>
       </c>
       <c r="F19">
-        <v>0.5850455022946406</v>
+        <v>0.2996604400906477</v>
       </c>
       <c r="G19">
-        <v>0.0007016673203374957</v>
+        <v>0.002331943344709952</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4286160464031852</v>
+        <v>0.2116163421046053</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.98799881286396</v>
+        <v>14.91554557894841</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.71536649244689</v>
+        <v>0.8142746167487189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05972154774114102</v>
+        <v>0.0287837316864028</v>
       </c>
       <c r="D20">
-        <v>0.05860959791833409</v>
+        <v>0.0226971242551528</v>
       </c>
       <c r="E20">
-        <v>9.76424125813071</v>
+        <v>3.795757340467731</v>
       </c>
       <c r="F20">
-        <v>0.5850455022946406</v>
+        <v>0.3004517904583892</v>
       </c>
       <c r="G20">
-        <v>0.0007016673203374957</v>
+        <v>0.002329951191574958</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4286160464031852</v>
+        <v>0.211871033895612</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.98799881286396</v>
+        <v>15.48338773190704</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.71536649244689</v>
+        <v>0.810507373114433</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05972154774114102</v>
+        <v>0.03226664697666592</v>
       </c>
       <c r="D21">
-        <v>0.05860959791833409</v>
+        <v>0.02553054143500333</v>
       </c>
       <c r="E21">
-        <v>9.76424125813071</v>
+        <v>4.278248493353431</v>
       </c>
       <c r="F21">
-        <v>0.5850455022946406</v>
+        <v>0.3045408276842849</v>
       </c>
       <c r="G21">
-        <v>0.0007016673203374957</v>
+        <v>0.002323401867586027</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4286160464031852</v>
+        <v>0.2138234319608472</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>36.98799881286396</v>
+        <v>17.39417571718468</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.71536649244689</v>
+        <v>0.8029451789552695</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05972154774114102</v>
+        <v>0.03453686416314383</v>
       </c>
       <c r="D22">
-        <v>0.05860959791833409</v>
+        <v>0.02739414795789941</v>
       </c>
       <c r="E22">
-        <v>9.76424125813071</v>
+        <v>4.595297545869698</v>
       </c>
       <c r="F22">
-        <v>0.5850455022946406</v>
+        <v>0.3083241241247805</v>
       </c>
       <c r="G22">
-        <v>0.0007016673203374957</v>
+        <v>0.002319227001168133</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4286160464031852</v>
+        <v>0.2159518967920704</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>36.98799881286396</v>
+        <v>18.64593945661244</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.71536649244689</v>
+        <v>0.8019675018208261</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05972154774114102</v>
+        <v>0.03332575445554653</v>
       </c>
       <c r="D23">
-        <v>0.05860959791833409</v>
+        <v>0.02639832701758138</v>
       </c>
       <c r="E23">
-        <v>9.76424125813071</v>
+        <v>4.425908578026963</v>
       </c>
       <c r="F23">
-        <v>0.5850455022946406</v>
+        <v>0.3062003242695823</v>
       </c>
       <c r="G23">
-        <v>0.0007016673203374957</v>
+        <v>0.002321445675870604</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4286160464031852</v>
+        <v>0.2147355986990078</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.98799881286396</v>
+        <v>17.97752698452081</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.71536649244689</v>
+        <v>0.8021156028453902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05972154774114102</v>
+        <v>0.02872670142153311</v>
       </c>
       <c r="D24">
-        <v>0.05860959791833409</v>
+        <v>0.02265099151903627</v>
       </c>
       <c r="E24">
-        <v>9.76424125813071</v>
+        <v>3.787896499285637</v>
       </c>
       <c r="F24">
-        <v>0.5850455022946406</v>
+        <v>0.3004030651283927</v>
       </c>
       <c r="G24">
-        <v>0.0007016673203374957</v>
+        <v>0.002330060044678853</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4286160464031852</v>
+        <v>0.2118530094950302</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.98799881286396</v>
+        <v>15.45219547875649</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.71536649244689</v>
+        <v>0.8106955013803088</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05972154774114102</v>
+        <v>0.02373934098318387</v>
       </c>
       <c r="D25">
-        <v>0.05860959791833409</v>
+        <v>0.01865032090977792</v>
       </c>
       <c r="E25">
-        <v>9.76424125813071</v>
+        <v>3.10544626894719</v>
       </c>
       <c r="F25">
-        <v>0.5850455022946406</v>
+        <v>0.2986316687251858</v>
       </c>
       <c r="G25">
-        <v>0.0007016673203374957</v>
+        <v>0.00233981678878147</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4286160464031852</v>
+        <v>0.2121789972218977</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36.98799881286396</v>
+        <v>12.73599834161814</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.71536649244689</v>
+        <v>0.8359030933738438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0200434094887143</v>
+        <v>0.06301856144662565</v>
       </c>
       <c r="D2">
-        <v>0.01573050031654333</v>
+        <v>0.06332077813210901</v>
       </c>
       <c r="E2">
-        <v>2.606204256907688</v>
+        <v>10.55056161012746</v>
       </c>
       <c r="F2">
-        <v>0.3008746626169483</v>
+        <v>0.6485277985688711</v>
       </c>
       <c r="G2">
-        <v>0.002347413942568164</v>
+        <v>0.0006960407799477264</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2151339154038396</v>
+        <v>0.4770899631387593</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73748604104105</v>
+        <v>39.67417174950305</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8670485619508099</v>
+        <v>1.932357871459573</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01752367395426546</v>
+        <v>0.05375861545881122</v>
       </c>
       <c r="D3">
-        <v>0.01376358889438478</v>
+        <v>0.05074146217253173</v>
       </c>
       <c r="E3">
-        <v>2.269143849709252</v>
+        <v>8.452736061945586</v>
       </c>
       <c r="F3">
-        <v>0.3044591907494265</v>
+        <v>0.4824188356738617</v>
       </c>
       <c r="G3">
-        <v>0.002352826746773228</v>
+        <v>0.0007115634743601926</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2187144283919551</v>
+        <v>0.3506623348224593</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.381662007845648</v>
+        <v>32.40362643297249</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8954597981311139</v>
+        <v>1.371507084856631</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01596922599944151</v>
+        <v>0.04841943947499772</v>
       </c>
       <c r="D4">
-        <v>0.01256053947008695</v>
+        <v>0.04428195373668586</v>
       </c>
       <c r="E4">
-        <v>2.062605310405786</v>
+        <v>7.376760270290987</v>
       </c>
       <c r="F4">
-        <v>0.3076306343039761</v>
+        <v>0.4025027769383343</v>
       </c>
       <c r="G4">
-        <v>0.002356282461737881</v>
+        <v>0.000720197279907846</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2216539881105568</v>
+        <v>0.2903696470911257</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.547829241095599</v>
+        <v>28.54900072216628</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9163309354213851</v>
+        <v>1.110726697105775</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01533396446430402</v>
+        <v>0.04629428395049473</v>
       </c>
       <c r="D5">
-        <v>0.01207129960231867</v>
+        <v>0.04184108692920319</v>
       </c>
       <c r="E5">
-        <v>1.978516891768066</v>
+        <v>6.970174161495919</v>
       </c>
       <c r="F5">
-        <v>0.3091601265523778</v>
+        <v>0.3735922552291129</v>
       </c>
       <c r="G5">
-        <v>0.002357724206886076</v>
+        <v>0.0007235907540724325</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2230328270713287</v>
+        <v>0.2686637924660076</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.207613826726913</v>
+        <v>27.07117185474345</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9256720703308332</v>
+        <v>1.018198317257315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0152283713706538</v>
+        <v>0.04594379639993207</v>
       </c>
       <c r="D6">
-        <v>0.01199011862145483</v>
+        <v>0.0414450396665913</v>
       </c>
       <c r="E6">
-        <v>1.964558017354449</v>
+        <v>6.904197582171207</v>
       </c>
       <c r="F6">
-        <v>0.3094282171745562</v>
+        <v>0.3689764741545147</v>
       </c>
       <c r="G6">
-        <v>0.002357965639079443</v>
+        <v>0.0007241485545003005</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2232725542820049</v>
+        <v>0.2652041503285787</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.151093605517929</v>
+        <v>26.83028364129416</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9272729082315436</v>
+        <v>1.003526364425738</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01596066592879453</v>
+        <v>0.0483906058180068</v>
       </c>
       <c r="D7">
-        <v>0.01255393750403755</v>
+        <v>0.04424837078891386</v>
       </c>
       <c r="E7">
-        <v>2.061470984222296</v>
+        <v>7.371166476861447</v>
       </c>
       <c r="F7">
-        <v>0.3076503106363973</v>
+        <v>0.4020997948516367</v>
       </c>
       <c r="G7">
-        <v>0.0023563017695084</v>
+        <v>0.0007202434621754181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2216718580606916</v>
+        <v>0.2900666720960601</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.54324278718633</v>
+        <v>28.52874699268995</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.916453561940699</v>
+        <v>1.109429756678082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0191761385571283</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D8">
-        <v>0.01505124723004059</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E8">
-        <v>2.48988170344424</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F8">
-        <v>0.3019049589907468</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G8">
-        <v>0.002349252995219228</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2162113719485177</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.27022604064683</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8761180054980571</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02542299128452896</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D9">
-        <v>0.01999332617117489</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E9">
-        <v>3.334720529646233</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F9">
-        <v>0.2986571896257857</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G9">
-        <v>0.002336466885483441</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2116317524458466</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.65040484974105</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8253825431057749</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.029977023297306</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D10">
-        <v>0.02366434996396549</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E10">
-        <v>3.960529526336586</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F10">
-        <v>0.3016090548561863</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G10">
-        <v>0.002327685990018582</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2123535080188645</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.13675056858943</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8070565006937898</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03204131494655371</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D11">
-        <v>0.02534628358819901</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E11">
-        <v>4.246889380416349</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F11">
-        <v>0.3042120627471618</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G11">
-        <v>0.00232382006649252</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2136479731319767</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.27020394811461</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8032076406487079</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03282197375530416</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D12">
-        <v>0.02598519517270859</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E12">
-        <v>4.355617160271379</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F12">
-        <v>0.3053876228739512</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G12">
-        <v>0.002322374254861342</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2142838409437644</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.69991138302032</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8024276387879468</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03265389099135518</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D13">
-        <v>0.02584750047082451</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E13">
-        <v>4.332186992515119</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F13">
-        <v>0.3051258600359148</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G13">
-        <v>0.002322684835917062</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.214140306030373</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.60734176386507</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8025649704699731</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03210556101329587</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D14">
-        <v>0.02539880545993611</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E14">
-        <v>4.255828384724907</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F14">
-        <v>0.3043049211401794</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G14">
-        <v>0.002323700757504195</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.213697327120876</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.30554545757985</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8031297033745091</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03176955776010004</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D15">
-        <v>0.02512423596441948</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E15">
-        <v>4.209095749459038</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F15">
-        <v>0.3038270592426571</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G15">
-        <v>0.002324325388950831</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2134451664364008</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.12075535610342</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8035648205804478</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02984196991724275</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D16">
-        <v>0.02355469571928381</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E16">
-        <v>3.941853012191928</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F16">
-        <v>0.301465032347167</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G16">
-        <v>0.002327941194095173</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2122889245505917</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06273739430964</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8074010588157421</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02865757953205161</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D17">
-        <v>0.02259508912321451</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E17">
-        <v>3.778370709816386</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F17">
-        <v>0.3003448249763352</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G17">
-        <v>0.002330192051247767</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2118317874197118</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.41439389109428</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8109263914984126</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02797565524419099</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D18">
-        <v>0.02204425692341516</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E18">
-        <v>3.68449462802198</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F18">
-        <v>0.2998185916693714</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G18">
-        <v>0.002331498806981558</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2116593735551078</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.04170032476338</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8133744870200985</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02774464786320152</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D19">
-        <v>0.02185793683683102</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E19">
-        <v>3.652734947628005</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F19">
-        <v>0.2996604400906477</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G19">
-        <v>0.002331943344709952</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2116163421046053</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.91554557894841</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8142746167487189</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0287837316864028</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D20">
-        <v>0.0226971242551528</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E20">
-        <v>3.795757340467731</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F20">
-        <v>0.3004517904583892</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G20">
-        <v>0.002329951191574958</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.211871033895612</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.48338773190704</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.810507373114433</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03226664697666592</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D21">
-        <v>0.02553054143500333</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E21">
-        <v>4.278248493353431</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F21">
-        <v>0.3045408276842849</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G21">
-        <v>0.002323401867586027</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2138234319608472</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.39417571718468</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8029451789552695</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03453686416314383</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D22">
-        <v>0.02739414795789941</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E22">
-        <v>4.595297545869698</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F22">
-        <v>0.3083241241247805</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G22">
-        <v>0.002319227001168133</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2159518967920704</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.64593945661244</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8019675018208261</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03332575445554653</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D23">
-        <v>0.02639832701758138</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E23">
-        <v>4.425908578026963</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F23">
-        <v>0.3062003242695823</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G23">
-        <v>0.002321445675870604</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2147355986990078</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.97752698452081</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8021156028453902</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02872670142153311</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D24">
-        <v>0.02265099151903627</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E24">
-        <v>3.787896499285637</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F24">
-        <v>0.3004030651283927</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G24">
-        <v>0.002330060044678853</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2118530094950302</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.45219547875649</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8106955013803088</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02373934098318387</v>
+        <v>0.0597215477408426</v>
       </c>
       <c r="D25">
-        <v>0.01865032090977792</v>
+        <v>0.05860959791833409</v>
       </c>
       <c r="E25">
-        <v>3.10544626894719</v>
+        <v>9.76424125813071</v>
       </c>
       <c r="F25">
-        <v>0.2986316687251858</v>
+        <v>0.5850455022946477</v>
       </c>
       <c r="G25">
-        <v>0.00233981678878147</v>
+        <v>0.0007016673203188515</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2121789972218977</v>
+        <v>0.4286160464031781</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.73599834161814</v>
+        <v>36.98799881286425</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8359030933738438</v>
+        <v>1.715366492446918</v>
       </c>
     </row>
   </sheetData>
